--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2749093.507371034</v>
+        <v>-2752023.084629989</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>59.0633783922494</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88.85706465605797</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.4479928815358</v>
+        <v>154.4479928815356</v>
       </c>
       <c r="T2" t="n">
-        <v>212.6125027391235</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.14260694488546</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.60208360226385</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.882761130621</v>
       </c>
       <c r="T3" t="n">
         <v>195.000011630976</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8570831082243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>129.5838934098333</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.2452763022329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.9918304616212</v>
+        <v>128.9918304616211</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>223.3556715895618</v>
       </c>
       <c r="U4" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="V4" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>103.5700582255369</v>
       </c>
       <c r="X4" t="n">
-        <v>103.5700582255342</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361556</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>72.36698404190659</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.2696694406318</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>100.077255155791</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.693472523613</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135118</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>145.7818465999107</v>
+        <v>265.6962952122075</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>7.397837941413282</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.737817290569923</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>127.9409606477172</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0.9312945272722378</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,13 +2530,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,13 +2713,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265257</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.1471058839296</v>
+        <v>79.05247329422409</v>
       </c>
       <c r="C2" t="n">
-        <v>109.1471058839296</v>
+        <v>79.05247329422409</v>
       </c>
       <c r="D2" t="n">
-        <v>109.1471058839296</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="E2" t="n">
-        <v>109.1471058839296</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="F2" t="n">
-        <v>109.1471058839296</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1471058839296</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1471058839296</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="I2" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="J2" t="n">
-        <v>41.38225763724336</v>
+        <v>41.38225763724392</v>
       </c>
       <c r="K2" t="n">
-        <v>125.0777296383322</v>
+        <v>125.0777296383334</v>
       </c>
       <c r="L2" t="n">
-        <v>265.8111253735102</v>
+        <v>265.811125373512</v>
       </c>
       <c r="M2" t="n">
-        <v>454.07358199531</v>
+        <v>454.0735819953127</v>
       </c>
       <c r="N2" t="n">
-        <v>649.9961303664222</v>
+        <v>649.9961303664256</v>
       </c>
       <c r="O2" t="n">
-        <v>821.6649758364325</v>
+        <v>821.6649758364365</v>
       </c>
       <c r="P2" t="n">
-        <v>933.6793628870222</v>
+        <v>933.679362887027</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.624756011734</v>
+        <v>969.6247560117394</v>
       </c>
       <c r="R2" t="n">
-        <v>969.624756011734</v>
+        <v>969.6247560117394</v>
       </c>
       <c r="S2" t="n">
-        <v>813.6166823940212</v>
+        <v>813.6166823940266</v>
       </c>
       <c r="T2" t="n">
-        <v>598.8565786171287</v>
+        <v>813.6166823940266</v>
       </c>
       <c r="U2" t="n">
-        <v>598.8565786171287</v>
+        <v>813.6166823940266</v>
       </c>
       <c r="V2" t="n">
-        <v>354.0018422505291</v>
+        <v>568.7619460274258</v>
       </c>
       <c r="W2" t="n">
-        <v>354.0018422505291</v>
+        <v>568.7619460274258</v>
       </c>
       <c r="X2" t="n">
-        <v>354.0018422505291</v>
+        <v>323.9072096608249</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.0018422505291</v>
+        <v>323.9072096608249</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.20320920597757</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="C3" t="n">
-        <v>86.20320920597757</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="D3" t="n">
-        <v>86.20320920597757</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="E3" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="F3" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="G3" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="H3" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="I3" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="J3" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="K3" t="n">
-        <v>87.76939899939292</v>
+        <v>87.76939899939347</v>
       </c>
       <c r="L3" t="n">
-        <v>226.0331256541189</v>
+        <v>226.0331256541199</v>
       </c>
       <c r="M3" t="n">
-        <v>406.7372413537772</v>
+        <v>406.737241353779</v>
       </c>
       <c r="N3" t="n">
-        <v>606.632702209875</v>
+        <v>606.6327022098775</v>
       </c>
       <c r="O3" t="n">
-        <v>767.2782009463372</v>
+        <v>767.2782009463403</v>
       </c>
       <c r="P3" t="n">
-        <v>876.877310196415</v>
+        <v>876.8773101964186</v>
       </c>
       <c r="Q3" t="n">
-        <v>969.624756011734</v>
+        <v>969.6247560117394</v>
       </c>
       <c r="R3" t="n">
-        <v>948.8145705549018</v>
+        <v>969.6247560117394</v>
       </c>
       <c r="S3" t="n">
-        <v>948.8145705549018</v>
+        <v>820.2482296171727</v>
       </c>
       <c r="T3" t="n">
-        <v>751.8448618367443</v>
+        <v>623.2785208990151</v>
       </c>
       <c r="U3" t="n">
-        <v>751.8448618367443</v>
+        <v>395.1400531129299</v>
       </c>
       <c r="V3" t="n">
-        <v>516.6927536050016</v>
+        <v>395.1400531129299</v>
       </c>
       <c r="W3" t="n">
-        <v>271.8380172384021</v>
+        <v>150.285316746329</v>
       </c>
       <c r="X3" t="n">
-        <v>271.8380172384021</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="Y3" t="n">
-        <v>254.4185462260456</v>
+        <v>19.39249512023479</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="C4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="D4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="E4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="F4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="G4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="H4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="I4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="J4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="K4" t="n">
-        <v>67.52574592625649</v>
+        <v>67.52574592626024</v>
       </c>
       <c r="L4" t="n">
-        <v>252.9523840639227</v>
+        <v>252.9523840639268</v>
       </c>
       <c r="M4" t="n">
-        <v>458.847898341493</v>
+        <v>458.8478983414974</v>
       </c>
       <c r="N4" t="n">
-        <v>665.2822939104981</v>
+        <v>665.2822939105029</v>
       </c>
       <c r="O4" t="n">
-        <v>839.9415750791209</v>
+        <v>839.9415750791259</v>
       </c>
       <c r="P4" t="n">
-        <v>965.8720812132033</v>
+        <v>965.8720812132085</v>
       </c>
       <c r="Q4" t="n">
-        <v>969.624756011734</v>
+        <v>969.6247560117394</v>
       </c>
       <c r="R4" t="n">
-        <v>839.3299777676722</v>
+        <v>839.3299777676776</v>
       </c>
       <c r="S4" t="n">
-        <v>839.3299777676722</v>
+        <v>839.3299777676776</v>
       </c>
       <c r="T4" t="n">
-        <v>613.7181882832663</v>
+        <v>613.7181882832717</v>
       </c>
       <c r="U4" t="n">
-        <v>368.8634519166667</v>
+        <v>368.8634519166709</v>
       </c>
       <c r="V4" t="n">
-        <v>124.0087155500672</v>
+        <v>124.00871555007</v>
       </c>
       <c r="W4" t="n">
-        <v>124.0087155500672</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="X4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.39249512023468</v>
+        <v>19.39249512023479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>573.7617370571243</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151035</v>
       </c>
     </row>
     <row r="6">
@@ -4668,25 +4668,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742757</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
         <v>21.09711040012049</v>
@@ -4747,25 +4747,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983347</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>736.256897008846</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>736.256897008846</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014853</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
         <v>21.09711040012049</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321236</v>
       </c>
       <c r="C8" t="n">
-        <v>692.5532710454991</v>
+        <v>1171.944675321236</v>
       </c>
       <c r="D8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144858</v>
       </c>
       <c r="E8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144858</v>
       </c>
       <c r="F8" t="n">
-        <v>685.6077702962956</v>
+        <v>806.7334759652823</v>
       </c>
       <c r="G8" t="n">
-        <v>269.5767249997028</v>
+        <v>390.7024306686895</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
@@ -4802,19 +4802,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="Y8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321236</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>359.013624781985</v>
       </c>
       <c r="D9" t="n">
-        <v>359.013624781985</v>
+        <v>210.0792151207337</v>
       </c>
       <c r="E9" t="n">
-        <v>359.013624781985</v>
+        <v>50.84176011527819</v>
       </c>
       <c r="F9" t="n">
-        <v>212.4790668088699</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>75.60307302398584</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4984,25 +4984,25 @@
         <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465729</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1247.957588882176</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="T10" t="n">
-        <v>1024.3537315748</v>
+        <v>1287.175893077873</v>
       </c>
       <c r="U10" t="n">
-        <v>735.2274105488234</v>
+        <v>998.0495720518968</v>
       </c>
       <c r="V10" t="n">
-        <v>735.2274105488234</v>
+        <v>743.36508384601</v>
       </c>
       <c r="W10" t="n">
-        <v>445.8102405118628</v>
+        <v>453.9479138090493</v>
       </c>
       <c r="X10" t="n">
-        <v>445.8102405118628</v>
+        <v>225.958362911032</v>
       </c>
       <c r="Y10" t="n">
         <v>225.0176613683328</v>
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,13 +5276,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5416,16 +5416,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,16 +6169,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,7 +6309,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,19 +6406,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,7 +7023,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,25 +7108,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7345,22 +7345,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,10 +7609,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,7 +7734,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.15160634722207</v>
+        <v>65.15160634722176</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>5.778681865471469</v>
+        <v>5.778681865471214</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.10357592638047</v>
+        <v>70.10357592638185</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>52.82600134650933</v>
+        <v>52.82600134651277</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140.3276526605471</v>
+        <v>140.3276526605457</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>125.7769948561579</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.6196632284335</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9079124266124</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>85.3460694672014</v>
+        <v>85.34606946720007</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>127.3249116755342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91.50247351051549</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9167432685456</v>
       </c>
       <c r="H4" t="n">
-        <v>152.6762370898483</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.2955927245771</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>43.85424565774261</v>
       </c>
       <c r="V4" t="n">
-        <v>9.7314543208945</v>
+        <v>9.731454320893164</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>182.9529401110541</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655272.4305488376</v>
+        <v>655272.4305488392</v>
       </c>
       <c r="C3" t="n">
-        <v>23586.40082585073</v>
+        <v>23586.40082584916</v>
       </c>
       <c r="D3" t="n">
         <v>291724.1809599824</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
-        <v>63424.12491548353</v>
+        <v>63424.12491548388</v>
       </c>
       <c r="K3" t="n">
-        <v>5483.917816920644</v>
+        <v>5483.917816920321</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932021</v>
+        <v>70460.80690932018</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152590.094633341</v>
+        <v>152590.0946333405</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>169484.7330776161</v>
+        <v>169484.7330776162</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26439,19 +26439,19 @@
         <v>19767.8354798993</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="M4" t="n">
         <v>19767.83547989929</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989934</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989929</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61352.43404016448</v>
+        <v>61352.43404016458</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869214.9592223431</v>
+        <v>-869679.2560143687</v>
       </c>
       <c r="C6" t="n">
-        <v>-338756.2692932944</v>
+        <v>-338756.2692932928</v>
       </c>
       <c r="D6" t="n">
-        <v>-546407.9958934707</v>
+        <v>-546407.9958934708</v>
       </c>
       <c r="E6" t="n">
-        <v>-714342.7136149781</v>
+        <v>-714377.4515404138</v>
       </c>
       <c r="F6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="G6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="H6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="I6" t="n">
         <v>-142359.6693274465</v>
       </c>
       <c r="J6" t="n">
-        <v>-186356.0762492982</v>
+        <v>-186356.0762492986</v>
       </c>
       <c r="K6" t="n">
-        <v>-128415.8691507353</v>
+        <v>-128415.869150735</v>
       </c>
       <c r="L6" t="n">
         <v>-193392.7582431349</v>
@@ -26555,7 +26555,7 @@
         <v>-280078.3318854127</v>
       </c>
       <c r="N6" t="n">
-        <v>-142359.6693274464</v>
+        <v>-142359.6693274465</v>
       </c>
       <c r="O6" t="n">
         <v>-122931.9513338147</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595.7127407700057</v>
+        <v>595.7127407700069</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595.7127407700057</v>
+        <v>595.7127407700069</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3422729994727</v>
+        <v>18.34227299947145</v>
       </c>
       <c r="D3" t="n">
         <v>239.6556507682058</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="C4" t="n">
-        <v>21.30769099857265</v>
+        <v>21.3076909985713</v>
       </c>
       <c r="D4" t="n">
         <v>278.4010767246571</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="K4" t="n">
-        <v>21.30769099857265</v>
+        <v>21.30769099857139</v>
       </c>
       <c r="L4" t="n">
         <v>278.4010767246571</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>242.4061890029335</v>
+        <v>242.4061890029348</v>
       </c>
       <c r="K4" t="n">
-        <v>21.30769099857265</v>
+        <v>21.3076909985713</v>
       </c>
       <c r="L4" t="n">
         <v>278.4010767246571</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>239.4958969148497</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.29233068907899</v>
+        <v>118.1493953451368</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.6125027391235</v>
       </c>
       <c r="U2" t="n">
         <v>251.1540669007547</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0621727774034</v>
       </c>
       <c r="H3" t="n">
-        <v>99.8603550367271</v>
+        <v>99.86035503672707</v>
       </c>
       <c r="I3" t="n">
-        <v>45.28017044533446</v>
+        <v>45.28017044533437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.60208360226369</v>
       </c>
       <c r="S3" t="n">
-        <v>147.8827611306211</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8570831082243</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>9.288794157986104</v>
+        <v>9.288794157984768</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>76.1890917936442</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.4374194750715</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9167432685456</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.6762370898483</v>
       </c>
       <c r="I4" t="n">
         <v>123.1452659687799</v>
       </c>
       <c r="J4" t="n">
-        <v>17.41068855981486</v>
+        <v>17.41068855981469</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.2955927245772</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.85424565774395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>122.1395971635029</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886462</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>255.3852744282283</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879351</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>105.6957300476865</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005092</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.8872062752398</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5449581562723</v>
+        <v>38.63050954397556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>137.6713744519706</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>88.76299597128522</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>69.24673011189867</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.6533588248226</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.394825088522634</v>
+        <v>2.394825088522639</v>
       </c>
       <c r="H2" t="n">
-        <v>24.52600243783243</v>
+        <v>24.52600243783249</v>
       </c>
       <c r="I2" t="n">
-        <v>92.32649422526895</v>
+        <v>92.32649422526913</v>
       </c>
       <c r="J2" t="n">
-        <v>203.2577858569981</v>
+        <v>203.2577858569985</v>
       </c>
       <c r="K2" t="n">
-        <v>304.6307318541612</v>
+        <v>304.6307318541619</v>
       </c>
       <c r="L2" t="n">
-        <v>377.9213601570359</v>
+        <v>377.9213601570367</v>
       </c>
       <c r="M2" t="n">
-        <v>420.5103308250503</v>
+        <v>420.5103308250511</v>
       </c>
       <c r="N2" t="n">
-        <v>427.3146276078152</v>
+        <v>427.3146276078161</v>
       </c>
       <c r="O2" t="n">
-        <v>403.5010856338183</v>
+        <v>403.5010856338191</v>
       </c>
       <c r="P2" t="n">
-        <v>344.3788412609157</v>
+        <v>344.3788412609164</v>
       </c>
       <c r="Q2" t="n">
-        <v>258.6141677781987</v>
+        <v>258.6141677781993</v>
       </c>
       <c r="R2" t="n">
-        <v>150.4339314669101</v>
+        <v>150.4339314669104</v>
       </c>
       <c r="S2" t="n">
-        <v>54.57207670470958</v>
+        <v>54.57207670470969</v>
       </c>
       <c r="T2" t="n">
-        <v>10.48334682500784</v>
+        <v>10.48334682500786</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1915860070818107</v>
+        <v>0.1915860070818111</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.281344385807182</v>
+        <v>1.281344385807185</v>
       </c>
       <c r="H3" t="n">
-        <v>12.37508919976936</v>
+        <v>12.37508919976939</v>
       </c>
       <c r="I3" t="n">
-        <v>44.11646240608061</v>
+        <v>44.11646240608071</v>
       </c>
       <c r="J3" t="n">
-        <v>121.0589448011952</v>
+        <v>121.0589448011955</v>
       </c>
       <c r="K3" t="n">
-        <v>206.9090186502764</v>
+        <v>206.9090186502769</v>
       </c>
       <c r="L3" t="n">
-        <v>278.2147097341428</v>
+        <v>278.2147097341434</v>
       </c>
       <c r="M3" t="n">
-        <v>324.6634437196531</v>
+        <v>324.6634437196537</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2563190086846</v>
+        <v>333.2563190086853</v>
       </c>
       <c r="O3" t="n">
-        <v>304.8644249863254</v>
+        <v>304.8644249863261</v>
       </c>
       <c r="P3" t="n">
-        <v>244.6805783740048</v>
+        <v>244.6805783740053</v>
       </c>
       <c r="Q3" t="n">
-        <v>163.5624868619835</v>
+        <v>163.5624868619838</v>
       </c>
       <c r="R3" t="n">
-        <v>79.55575055037929</v>
+        <v>79.55575055037944</v>
       </c>
       <c r="S3" t="n">
-        <v>23.80040997321672</v>
+        <v>23.80040997321677</v>
       </c>
       <c r="T3" t="n">
-        <v>5.164717063845614</v>
+        <v>5.164717063845624</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08429897275047253</v>
+        <v>0.08429897275047271</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.074236089913125</v>
+        <v>1.074236089913127</v>
       </c>
       <c r="H4" t="n">
-        <v>9.550935417591244</v>
+        <v>9.550935417591264</v>
       </c>
       <c r="I4" t="n">
-        <v>32.30520895847835</v>
+        <v>32.30520895847842</v>
       </c>
       <c r="J4" t="n">
-        <v>75.94849155685792</v>
+        <v>75.94849155685809</v>
       </c>
       <c r="K4" t="n">
-        <v>124.8067020826339</v>
+        <v>124.8067020826342</v>
       </c>
       <c r="L4" t="n">
-        <v>159.709609222175</v>
+        <v>159.7096092221753</v>
       </c>
       <c r="M4" t="n">
-        <v>168.3913899852001</v>
+        <v>168.3913899852004</v>
       </c>
       <c r="N4" t="n">
-        <v>164.3874191046149</v>
+        <v>164.3874191046153</v>
       </c>
       <c r="O4" t="n">
-        <v>151.8383884179025</v>
+        <v>151.8383884179028</v>
       </c>
       <c r="P4" t="n">
-        <v>129.9239721836746</v>
+        <v>129.9239721836749</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.95262385627085</v>
+        <v>89.95262385627105</v>
       </c>
       <c r="R4" t="n">
-        <v>48.30156091554831</v>
+        <v>48.30156091554841</v>
       </c>
       <c r="S4" t="n">
-        <v>18.72100531239509</v>
+        <v>18.72100531239513</v>
       </c>
       <c r="T4" t="n">
-        <v>4.589917838719714</v>
+        <v>4.589917838719724</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05859469581344324</v>
+        <v>0.05859469581344336</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.2118813303118</v>
+        <v>22.21188133031222</v>
       </c>
       <c r="K2" t="n">
-        <v>84.54088080918069</v>
+        <v>84.54088080918132</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1549451870487</v>
+        <v>142.1549451870495</v>
       </c>
       <c r="M2" t="n">
-        <v>190.1640975977776</v>
+        <v>190.1640975977784</v>
       </c>
       <c r="N2" t="n">
-        <v>197.9015640112243</v>
+        <v>197.9015640112252</v>
       </c>
       <c r="O2" t="n">
-        <v>173.4028742121315</v>
+        <v>173.4028742121324</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1458455056462</v>
+        <v>113.1458455056469</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.30847790374926</v>
+        <v>36.30847790374983</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>69.06757967591741</v>
+        <v>69.06757967591787</v>
       </c>
       <c r="L3" t="n">
-        <v>139.6603299542686</v>
+        <v>139.6603299542692</v>
       </c>
       <c r="M3" t="n">
-        <v>182.5294097976347</v>
+        <v>182.5294097976354</v>
       </c>
       <c r="N3" t="n">
-        <v>201.9146069253513</v>
+        <v>201.914606925352</v>
       </c>
       <c r="O3" t="n">
-        <v>162.268180541881</v>
+        <v>162.2681805418816</v>
       </c>
       <c r="P3" t="n">
-        <v>110.7061709596746</v>
+        <v>110.7061709596751</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.68428870234243</v>
+        <v>93.68428870234415</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.61944525860788</v>
+        <v>48.61944525861158</v>
       </c>
       <c r="L4" t="n">
-        <v>187.2996344824911</v>
+        <v>187.2996344824915</v>
       </c>
       <c r="M4" t="n">
-        <v>207.9752669470407</v>
+        <v>207.975266947041</v>
       </c>
       <c r="N4" t="n">
-        <v>208.5195914838435</v>
+        <v>208.5195914838439</v>
       </c>
       <c r="O4" t="n">
-        <v>176.4235163319422</v>
+        <v>176.4235163319425</v>
       </c>
       <c r="P4" t="n">
-        <v>127.2025314485681</v>
+        <v>127.2025314485684</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.790580604576462</v>
+        <v>3.790580604576661</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
